--- a/materials.xlsx
+++ b/materials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>descripcion</t>
   </si>
@@ -31,163 +31,52 @@
     <t>referencia</t>
   </si>
   <si>
-    <t>Construcción cama tuberías con gravilla, D&lt;= 20 km.</t>
-  </si>
-  <si>
-    <t>Construcción de cama de tuberías con grava 6/20 mm procedente de las excavaciones.</t>
-  </si>
-  <si>
-    <t>Relleno mecánico bolos 40/80 mm.</t>
-  </si>
-  <si>
-    <t>Geotextil no tejido de polipropileno, gramajes 126 a 155 g/m².</t>
-  </si>
-  <si>
-    <t>Tubería PVC drenaje sn8 ø125 mm.</t>
-  </si>
-  <si>
-    <t>Tubería PVC drenaje sn8 ø160 mm.</t>
-  </si>
-  <si>
-    <t>Tubería PVC drenaje sn8 ø250 mm.</t>
-  </si>
-  <si>
-    <t>Tubería PVC, ø 160 mm, 1,0 MPa, junta goma o encolar, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería PVC, ø 250 mm, 1,0 MPa, junta goma, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería de fundición dúctil, ø 300 mm, clase C40, colocada.</t>
-  </si>
-  <si>
-    <t>Pieza especial calderería chapa acero, 250&lt;ø&lt;= 500 mm, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería PVC lisa saneamiento ø 400 mm, rig. 4 kN/m², coloc.</t>
-  </si>
-  <si>
-    <t>Tubería PVC lisa saneamiento ø 200 mm, rig. 4 kN/m², coloc.</t>
-  </si>
-  <si>
-    <t>Tubería PVC-O PN-12,5 DN-125.</t>
-  </si>
-  <si>
-    <t>Tubería PVC-O PN-16 DN-125.</t>
-  </si>
-  <si>
-    <t>Tubería PVC orientado, ø 140 mm, 1,25 MPa, junta goma, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería PVC orientado, ø 140 mm, 1,6 MPa, junta goma, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería PVC orientado, ø 200 mm, 1,25 MPa, junta goma, colocada.</t>
-  </si>
-  <si>
-    <t>Tubería PVC orientado, ø 200 mm, 1,6 MPa, junta goma, colocada.</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE COMPUERTA EMBRIDADA ø200 mm PN-16 ENT.</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE COMPUERTA EMBRIDADA ø250 mm PN-16 ENT.</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE COMPUERTA EMBRIDADA ø300 mm PN-16 ENT.</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>3.834,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>1.193,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>593,00</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>121,00</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>922,00</t>
-  </si>
-  <si>
-    <t>972,00</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>2.023,00</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>408,00</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>m³</t>
-  </si>
-  <si>
-    <t>m²</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>ud</t>
-  </si>
-  <si>
-    <t>Página 2, apartado 3.2</t>
-  </si>
-  <si>
-    <t>Página 2, apartado 3.4</t>
-  </si>
-  <si>
-    <t>Página 3, apartado 3.4</t>
-  </si>
-  <si>
-    <t>Página 3, apartado 3.5</t>
-  </si>
-  <si>
-    <t>Página 4, apartado 3.6</t>
-  </si>
-  <si>
-    <t>Página 8, apartado 3.7</t>
+    <t>Montaje de tubería PE100, ø 25 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 32 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 40 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 50 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 63 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 75 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>Montaje de tubería PE100, ø 90 mm, 1,0 MPa, colocada.</t>
+  </si>
+  <si>
+    <t>unidad   m</t>
+  </si>
+  <si>
+    <t>67.386</t>
+  </si>
+  <si>
+    <t>67.383</t>
+  </si>
+  <si>
+    <t>32.687</t>
+  </si>
+  <si>
+    <t>12.050</t>
+  </si>
+  <si>
+    <t>7.956</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>Capítulo 2, Sección 3.1.1</t>
+  </si>
+  <si>
+    <t>No especificado</t>
   </si>
 </sst>
 </file>
@@ -545,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,11 +461,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -584,13 +479,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -598,13 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -612,13 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -626,13 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -640,13 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,223 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
